--- a/src/test/java/com/example/simplezakka/結合テスト_シナリオ一覧_D.xlsx
+++ b/src/test/java/com/example/simplezakka/結合テスト_シナリオ一覧_D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etsu.miura\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/hikari_nakamura_avantcorp_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F84757-50F3-4080-BAC2-AFAB263B24F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A4EFCA1-710E-4C95-9E80-A53D414487B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
+    <workbookView xWindow="1520" yWindow="720" windowWidth="17680" windowHeight="11280" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="200">
   <si>
     <t>simplezakka結合テストシナリオ一覧</t>
     <phoneticPr fontId="1"/>
@@ -490,6 +490,13 @@
     <t>500 Internal Server Error、DBに登録されない。セッションに値は設定されない。ログにエラーが出力される。</t>
   </si>
   <si>
+    <t>5. ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
     <t>登録済み会員が正しい情報でログインする</t>
   </si>
   <si>
@@ -499,6 +506,9 @@
     <t>自動的にマイページに遷移し、登録情報がJSON形式で返され画面上に表示される。(200 OK)</t>
   </si>
   <si>
+    <t>5-2</t>
+  </si>
+  <si>
     <t>ログイン後にマイページへアクセス</t>
   </si>
   <si>
@@ -508,8 +518,7 @@
     <t>マイページに遷移し、登録情報がJSON形式で返され画面上に表示される。(200 OK)</t>
   </si>
   <si>
-    <t>5. ログイン</t>
-    <phoneticPr fontId="1"/>
+    <t>5-3</t>
   </si>
   <si>
     <t>ログアウト処理</t>
@@ -521,7 +530,7 @@
     <t>セッション情報を初期化された状態にする。(200 OK)</t>
   </si>
   <si>
-    <t>5-1</t>
+    <t>5-4</t>
   </si>
   <si>
     <t>存在しないメールアドレスでログイン</t>
@@ -530,31 +539,16 @@
     <t>POST/api/user/login→LogInController→AuthService→AuthRepository</t>
   </si>
   <si>
-    <t>5-2</t>
+    <t>401 Unauthorizedステータスが返却される。</t>
+  </si>
+  <si>
+    <t>5-5</t>
   </si>
   <si>
     <t>パスワードが間違っている場合</t>
   </si>
   <si>
-    <t>401 Unauthorizedステータスが返却される。</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>メールアドレスが空入力の場合</t>
-  </si>
-  <si>
-    <t>POST/api/user/login→LogInController(validation)</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>パスワードが空の場合</t>
-  </si>
-  <si>
-    <t>5-5</t>
+    <t>5-6</t>
   </si>
   <si>
     <t>ログインしていない状態でマイページにアクセス</t>
@@ -563,16 +557,32 @@
     <t>GET/api/user/mypage→LogInController→Session</t>
   </si>
   <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
+    <t>6. 管理者機能</t>
+    <rPh sb="3" eb="6">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ分類</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>シナリオ名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系</t>
+    <rPh sb="0" eb="3">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -595,6 +605,10 @@
     <t>管理者ページへ遷移する</t>
   </si>
   <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>商品一覧表示</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンイチラン</t>
@@ -605,14 +619,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6. 管理者機能</t>
-    <rPh sb="3" eb="6">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>6-3</t>
   </si>
   <si>
     <t>商品の登録から新たに商品を登録する</t>
@@ -645,12 +652,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シナリオ分類</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6-1</t>
-    <phoneticPr fontId="1"/>
+    <t>6-4</t>
   </si>
   <si>
     <t>商品編集から商品情報の編集をおこなう</t>
@@ -674,15 +676,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正常系</t>
-    <rPh sb="0" eb="3">
-      <t>セイジョウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6-2</t>
-    <phoneticPr fontId="1"/>
+    <t>6-5</t>
   </si>
   <si>
     <t>削除ボタンを押すと商品が一覧から削除される</t>
@@ -745,7 +739,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-3</t>
+    <t>異常系</t>
+    <rPh sb="0" eb="3">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-6</t>
   </si>
   <si>
     <t>ユーザー名，パスワードの一方，または両方が間違っている</t>
@@ -770,7 +771,7 @@
     <t>エラーメッセージが表示され、管理者ページへ遷移しない（401 Unauthorized等）</t>
   </si>
   <si>
-    <t>6-4</t>
+    <t>6-7</t>
   </si>
   <si>
     <t>新規商品登録で商品名をnullで指定する</t>
@@ -790,7 +791,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-5</t>
+    <t>6-8</t>
   </si>
   <si>
     <t>新規商品登録で価格を0以下で指定する</t>
@@ -813,7 +814,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-6</t>
+    <t>6-9</t>
   </si>
   <si>
     <t>新規商品登録で在庫を負数で指定する</t>
@@ -834,29 +835,13 @@
   <si>
     <t>PUT /api/products/stock(quantity: &lt;0) -&gt; ProductController (Validation)</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>異常系</t>
-    <rPh sb="0" eb="3">
-      <t>イジョウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>6-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,13 +880,6 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -968,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1056,20 +1034,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1408,20 +1380,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B58C232-3412-462C-AB01-3FF28E9C0C9E}">
-  <dimension ref="A1:T75"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="18.4140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.58203125" style="3"/>
+    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="2"/>
+    <col min="3" max="3" width="52.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="54.125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2037,7 +2009,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:5">
       <c r="A49" s="12" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="36">
+    <row r="50" spans="1:5" ht="36">
       <c r="A50" s="15" t="s">
         <v>7</v>
       </c>
@@ -2071,7 +2043,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="36">
+    <row r="51" spans="1:5" ht="36">
       <c r="A51" s="15" t="s">
         <v>16</v>
       </c>
@@ -2088,27 +2060,26 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="33"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="B53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:20">
+    <row r="52" spans="1:5" ht="15.75">
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75">
       <c r="A54" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:20">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75">
       <c r="A55" s="22" t="s">
         <v>2</v>
       </c>
@@ -2125,169 +2096,136 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="36">
+    <row r="56" spans="1:5" ht="45.75">
       <c r="A56" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="36">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30.75">
       <c r="A57" s="25"/>
       <c r="B57" s="26" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75">
       <c r="A58" s="25"/>
       <c r="B58" s="26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="36">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45.75">
       <c r="A59" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="36">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45.75">
       <c r="A60" s="25"/>
       <c r="B60" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="36">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75">
       <c r="A61" s="25"/>
       <c r="B61" s="26" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="36">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="D61" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75">
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75">
+      <c r="B63" s="20"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75">
       <c r="A64" s="18"/>
       <c r="B64" s="20"/>
       <c r="C64" s="18"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-    </row>
-    <row r="65" spans="1:20" s="18" customFormat="1">
+    </row>
+    <row r="65" spans="1:20" ht="15.75">
       <c r="A65" s="11" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B65" s="20"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
     </row>
-    <row r="66" spans="1:20" s="18" customFormat="1">
+    <row r="66" spans="1:20" ht="15.75">
       <c r="A66" s="12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>5</v>
@@ -2295,43 +2233,43 @@
       <c r="E66" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" s="18" customFormat="1">
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+    </row>
+    <row r="67" spans="1:20" s="18" customFormat="1" ht="15.75">
       <c r="A67" s="15" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C67" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" t="s">
         <v>170</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="1:20" s="18" customFormat="1" ht="36">
+    </row>
+    <row r="68" spans="1:20" s="18" customFormat="1" ht="30.75">
       <c r="A68" s="15"/>
       <c r="B68" s="16" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>173</v>
@@ -2342,26 +2280,11 @@
       <c r="E68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-    </row>
-    <row r="69" spans="1:20" ht="54">
+    </row>
+    <row r="69" spans="1:20" s="18" customFormat="1" ht="45.75">
       <c r="A69" s="15"/>
       <c r="B69" s="16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>175</v>
@@ -2372,99 +2295,140 @@
       <c r="E69" s="17" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" ht="36">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" spans="1:20" s="18" customFormat="1" ht="30.75">
       <c r="A70" s="15"/>
       <c r="B70" s="16" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C70" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="E70" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="E70" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="36">
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" spans="1:20" ht="30.75">
       <c r="A71" s="15"/>
       <c r="B71" s="16" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C71" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D71" s="10" t="s">
+    </row>
+    <row r="72" spans="1:20" ht="30.75">
+      <c r="A72" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="B72" s="16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" ht="36">
-      <c r="A72" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>198</v>
-      </c>
       <c r="C72" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="E72" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E72" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="36">
+    </row>
+    <row r="73" spans="1:20" ht="30.75">
       <c r="A73" s="15"/>
       <c r="B73" s="16" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="36">
+    <row r="74" spans="1:20" ht="30.75">
       <c r="A74" s="15"/>
       <c r="B74" s="16" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C74" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="36">
+    <row r="75" spans="1:20" ht="30.75">
       <c r="A75" s="15"/>
       <c r="B75" s="16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C75" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="76" spans="1:20" ht="15.75"/>
+    <row r="77" spans="1:20" ht="15.75"/>
+    <row r="78" spans="1:20" ht="15.75"/>
+    <row r="79" spans="1:20" ht="15.75"/>
+    <row r="80" spans="1:20" ht="15.75"/>
+    <row r="81" ht="15.75"/>
+    <row r="82" ht="15.75"/>
+    <row r="83" ht="15.75"/>
+    <row r="84" ht="15.75"/>
+    <row r="85" ht="15.75"/>
+    <row r="86" ht="15.75"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
